--- a/biology/Zoologie/Amauris_niavius/Amauris_niavius.xlsx
+++ b/biology/Zoologie/Amauris_niavius/Amauris_niavius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Amauris niavius est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Amauris. Cette espèce sert de référence au genre Amauris.
 </t>
@@ -511,20 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décrit par Linné en 1758 sous le nom de Papilio niavius[1] l'espèce sera reclassé par Jakob Hübner en 1816 dans le genre Amauris. Le nom actuel est Amauris niavius.
-Synonymie
-Papilio niavius (Linnaeus, 1758) Protonyme
-Amauris partita (Talbot, 1941)
-Amauris obliterata (Dufrane, 1948)
-Noms vernaculaires
- Amauris niavius se nomme en anglais Friar[2]
-Taxinomie
-Il existe pour cette espèce 3 sous-espèces :
-Amauris niavius niavius (Linnaeus, 1758)
-Amauris niavius dominicanus (Trimen, 1879)[3]
-Amauris niavius aethiops (Rothschild &amp; Jordan, 1903)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par Linné en 1758 sous le nom de Papilio niavius l'espèce sera reclassé par Jakob Hübner en 1816 dans le genre Amauris. Le nom actuel est Amauris niavius.
+</t>
         </is>
       </c>
     </row>
@@ -549,10 +553,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio niavius (Linnaeus, 1758) Protonyme
+Amauris partita (Talbot, 1941)
+Amauris obliterata (Dufrane, 1948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amauris niavius se nomme en anglais Friar
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe pour cette espèce 3 sous-espèces :
+Amauris niavius niavius (Linnaeus, 1758)
+Amauris niavius dominicanus (Trimen, 1879)
+Amauris niavius aethiops (Rothschild &amp; Jordan, 1903)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand papillon marron taché de blanc a une envergure qui varie de 78 mm à 82 mm pour les femelles et de 80 mm à 85 mm pour les mâles.
 Les ailes antérieures sont sur les deux faces marron ornées de taches blanches formant une large tache basale et une bande réservant un apex marron.
@@ -561,71 +681,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Amauris_niavius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Il vole toute l'année[5].
-Plantes hôtes
-Les larves se nourrissent de Cynanchum, Gymnema, Marsdenia, Secamone, Tylophora de façon naturelle[6]. En captivité elles acceptent Cynanchum medium, Cynanchum nigrum, Cynanchum vincetoxicum, Gymnema sylvestre, Ipomoea [7]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Amauris_niavius</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se nourrissent de Cynanchum, Gymnema, Marsdenia, Secamone, Tylophora de façon naturelle. En captivité elles acceptent Cynanchum medium, Cynanchum nigrum, Cynanchum vincetoxicum, Gymnema sylvestre, Ipomoea 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est résident en Afrique, depuis l'Éthiopie, le nord de l'Ouganda, le sud du Soudan, le Mozambique, la Rhodésie, le Malawi, le Kenya, l'est de la Tanzanie, le Zaïre, l'Angola le Cameroun, le Sierra Leone et la Guinée[2].
-Biotope
-Il réside dans la forêt tropicale africaine.
-Protection
-Pas de statut particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est résident en Afrique, depuis l'Éthiopie, le nord de l'Ouganda, le sud du Soudan, le Mozambique, la Rhodésie, le Malawi, le Kenya, l'est de la Tanzanie, le Zaïre, l'Angola le Cameroun, le Sierra Leone et la Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale africaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amauris_niavius</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut particulier.
 </t>
         </is>
       </c>
